--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2964908.555643832</v>
+        <v>2962656.475932624</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>124.2781875329267</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>219.2767559860926</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>75.32106881022246</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666726</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>126.5388824951715</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>81.46084344268542</v>
+        <v>117.4014735002805</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>147.2339392611591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>62.33347093294454</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>166.1712432162374</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187885</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428251</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605717069</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2002,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>244.6418937426531</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187862</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1865.035106955553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C2" t="n">
-        <v>1496.072590015141</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D2" t="n">
-        <v>1137.806891408391</v>
+        <v>953.6440892486864</v>
       </c>
       <c r="E2" t="n">
-        <v>752.0186388101465</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>341.032734020539</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>330.0006879059395</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2641.774278995486</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2251.634947019675</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308158</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367746</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760996</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.384423162752</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>651.398518373144</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3260682181405</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348092</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.00073137228</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>838.6033255730482</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V7" t="n">
-        <v>583.9188373671614</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W7" t="n">
-        <v>294.5016673302008</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761617</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,10 +4820,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
         <v>1212.42807043813</v>
@@ -4902,31 +4902,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>382.1280466398576</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>350.2677975281828</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X10" t="n">
-        <v>753.0372651957234</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.2446860521933</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403286</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>261.012762333092</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>261.012762333092</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192383</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5516,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
         <v>402.7245934908939</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.8158034133954</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>958.2568473871653</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>737.4642682436352</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7366,16 +7366,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392984</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405068</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>41.54258064659103</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463134</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>741680.5388463134</v>
+        <v>741680.5388463133</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>741680.5388463133</v>
+        <v>741680.5388463131</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846412</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30021153486216e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189189</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="F4" t="n">
         <v>16046.58397189197</v>
@@ -26436,22 +26436,22 @@
         <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083976</v>
+        <v>-832389.9260083972</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191954</v>
+        <v>496354.819719195</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191952</v>
+        <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>243493.0341333512</v>
+        <v>243458.2962079158</v>
       </c>
       <c r="F6" t="n">
-        <v>568905.4959407065</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="G6" t="n">
-        <v>568905.495940707</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="H6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.758015271</v>
       </c>
       <c r="I6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.758015271</v>
       </c>
       <c r="J6" t="n">
-        <v>351374.2935434291</v>
+        <v>351339.5556179934</v>
       </c>
       <c r="K6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.7580152709</v>
       </c>
       <c r="L6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152708</v>
       </c>
       <c r="M6" t="n">
-        <v>483850.4680051945</v>
+        <v>483815.7300797589</v>
       </c>
       <c r="N6" t="n">
-        <v>568905.4959407068</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="O6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.7580152712</v>
       </c>
       <c r="P6" t="n">
-        <v>568905.4959407066</v>
+        <v>568870.758015271</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.6252644185777e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.6252644185777e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>257.6521825393351</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>75.33100840122788</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>91.92575228840538</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068133</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>168.0688818921489</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>204.7509947629275</v>
+        <v>168.8103647053323</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>259.6421064805523</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>189.8041723908835</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>59.53841217279975</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28801,73 +28801,73 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>339.3493584601583</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.015579806721</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305184</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847177</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32491,7 +32491,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32707,7 +32707,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K23" t="n">
         <v>699.5441750817575</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32947,7 +32947,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33737,7 +33737,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,22 +33968,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34208,7 +34208,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34372,10 +34372,10 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>200.7949786802841</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236315111</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37385,7 +37385,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,7 +37856,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,10 +38020,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
